--- a/biology/Botanique/Begonia_aceroides/Begonia_aceroides.xlsx
+++ b/biology/Botanique/Begonia_aceroides/Begonia_aceroides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Begonia aceroides est une espèce de plantes de la famille des Begoniaceae. Ce bégonia tubéreux est originaire de Thaïlande.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez ce bégonia tubéreux, la feuille est plaquée au rocher. Asymétriques comme chez la plupart des bégonias, les feuilles sont de forme ovoïde, de couleur verte, à bords échancrés entre les nervures principales et à larges dentelures. C'est ce qui fait penser aux feuilles d'érable et explique le nom de l'espèce. Les nervures sont palmées et les pétioles poilus. 
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est originaire de Thaïlande[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est originaire de Thaïlande.
 </t>
         </is>
       </c>
@@ -573,11 +589,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia aceroides fait partie de la section Diploclinium du genre Begonia, famille des Begoniaceae[3]. L'espèce a été décrite en 1953 par le botaniste allemand Edgar Irmscher (1887-1968) et l'épithète spécifique, aceroides, signifie « qui ressemble à l'érable (Acer) ».
-Synonymie : Begonia burkillii Irmsch. est un synonyme illégitime, à ne pas confondre avec un autre nom valide, Begonia burkillii Dunn, qui correspond à une espèce distincte[4].
-Publication originale : Botanische Jahrbücher für Systematik, Pflanzengeschichte und Pflanzengeographie 76: 100. 1953[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia aceroides fait partie de la section Diploclinium du genre Begonia, famille des Begoniaceae. L'espèce a été décrite en 1953 par le botaniste allemand Edgar Irmscher (1887-1968) et l'épithète spécifique, aceroides, signifie « qui ressemble à l'érable (Acer) ».
+Synonymie : Begonia burkillii Irmsch. est un synonyme illégitime, à ne pas confondre avec un autre nom valide, Begonia burkillii Dunn, qui correspond à une espèce distincte.
+Publication originale : Botanische Jahrbücher für Systematik, Pflanzengeschichte und Pflanzengeographie 76: 100. 1953.
 </t>
         </is>
       </c>
